--- a/Data/Final_Dataset_Full.xlsx
+++ b/Data/Final_Dataset_Full.xlsx
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="AR2" t="n">
-        <v>0.6574347981846413</v>
+        <v>0.6578046927632482</v>
       </c>
     </row>
     <row r="3">
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>2.28685705857007</v>
+        <v>2.287011193284499</v>
       </c>
     </row>
     <row r="4">
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="AR4" t="n">
-        <v>1.191855401934907</v>
+        <v>1.192154531236961</v>
       </c>
     </row>
     <row r="5">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="AR5" t="n">
-        <v>1.094688019434859</v>
+        <v>1.095000015150831</v>
       </c>
     </row>
     <row r="6">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>3.05298449751276</v>
+        <v>3.05303718550206</v>
       </c>
     </row>
     <row r="7">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="AR7" t="n">
-        <v>2.099996707608438</v>
+        <v>2.100175585426558</v>
       </c>
     </row>
     <row r="8">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>3.314588988859045</v>
+        <v>3.314607036503179</v>
       </c>
     </row>
     <row r="9">
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>2.881446695329982</v>
+        <v>2.88152209748847</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>0.7172301104923635</v>
+        <v>0.7175920872777894</v>
       </c>
     </row>
     <row r="11">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="AR11" t="n">
-        <v>2.791380006166476</v>
+        <v>2.791467334500942</v>
       </c>
     </row>
     <row r="12">
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="AR12" t="n">
-        <v>1.102162433473325</v>
+        <v>1.102473439465149</v>
       </c>
     </row>
     <row r="13">
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="AR13" t="n">
-        <v>1.147008917704117</v>
+        <v>1.147313985351055</v>
       </c>
     </row>
     <row r="14">
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="AR14" t="n">
-        <v>1.371241338858076</v>
+        <v>1.371516714780586</v>
       </c>
     </row>
     <row r="15">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="AR15" t="n">
-        <v>2.350389577897025</v>
+        <v>2.3505352999562</v>
       </c>
     </row>
     <row r="16">
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="AR16" t="n">
-        <v>2.025252567223785</v>
+        <v>2.025441342283381</v>
       </c>
     </row>
     <row r="17">
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="AR17" t="n">
-        <v>1.423562237127331</v>
+        <v>1.423830684980809</v>
       </c>
     </row>
     <row r="18">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="AR18" t="n">
-        <v>1.195592608954141</v>
+        <v>1.19589124339412</v>
       </c>
     </row>
     <row r="19">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="AR19" t="n">
-        <v>1.576787724915869</v>
+        <v>1.577035883424321</v>
       </c>
     </row>
     <row r="20">
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="AR20" t="n">
-        <v>2.68300100260873</v>
+        <v>2.683102681943337</v>
       </c>
     </row>
     <row r="21">
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="AR21" t="n">
-        <v>3.064196118570459</v>
+        <v>3.064247321973537</v>
       </c>
     </row>
     <row r="22">
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="AR22" t="n">
-        <v>2.484929030589401</v>
+        <v>2.485056937613917</v>
       </c>
     </row>
     <row r="23">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="AR23" t="n">
-        <v>1.027418293088672</v>
+        <v>1.027739196321973</v>
       </c>
     </row>
     <row r="24">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="AR24" t="n">
-        <v>1.289022784434956</v>
+        <v>1.289309047323091</v>
       </c>
     </row>
     <row r="25">
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="AR25" t="n">
-        <v>1.63284583020436</v>
+        <v>1.633086565781704</v>
       </c>
     </row>
     <row r="26">
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="AR26" t="n">
-        <v>1.905661942608341</v>
+        <v>1.905866553254298</v>
       </c>
     </row>
     <row r="27">
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="AR27" t="n">
-        <v>1.195592608954141</v>
+        <v>1.19589124339412</v>
       </c>
     </row>
     <row r="28">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="AR28" t="n">
-        <v>2.985714771166573</v>
+        <v>2.985776366673202</v>
       </c>
     </row>
     <row r="29">
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="AR29" t="n">
-        <v>0.9900462228963456</v>
+        <v>0.9903720747503852</v>
       </c>
     </row>
     <row r="30">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="AR30" t="n">
-        <v>0.0370584329920236</v>
+        <v>0.03003705036056425</v>
       </c>
     </row>
     <row r="31">
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="AR31" t="n">
-        <v>0.7770254228000859</v>
+        <v>0.777379481792331</v>
       </c>
     </row>
     <row r="32">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="AR32" t="n">
-        <v>1.543152861742777</v>
+        <v>1.543405474009892</v>
       </c>
     </row>
     <row r="33">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="AR33" t="n">
-        <v>3.217795327060919</v>
+        <v>3.217826191632764</v>
       </c>
     </row>
     <row r="34">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         </is>
       </c>
       <c r="AR34" t="n">
-        <v>2.481191823570168</v>
+        <v>2.481320225456758</v>
       </c>
     </row>
     <row r="35">
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="AR35" t="n">
-        <v>1.640320244242824</v>
+        <v>1.64055999009602</v>
       </c>
     </row>
     <row r="36">
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="AR36" t="n">
-        <v>1.259125128281095</v>
+        <v>1.259415350065821</v>
       </c>
     </row>
     <row r="37">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         </is>
       </c>
       <c r="AR37" t="n">
-        <v>3.041772876455064</v>
+        <v>3.041827049030585</v>
       </c>
     </row>
     <row r="38">
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="AR38" t="n">
-        <v>2.82501486933957</v>
+        <v>2.825097743915371</v>
       </c>
     </row>
     <row r="39">
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="AR39" t="n">
-        <v>1.737487626742873</v>
+        <v>1.737714506182151</v>
       </c>
     </row>
     <row r="40">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="AR40" t="n">
-        <v>2.578359206070216</v>
+        <v>2.578474741542888</v>
       </c>
     </row>
     <row r="41">
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="AR41" t="n">
-        <v>2.152317605877695</v>
+        <v>2.152489555626782</v>
       </c>
     </row>
     <row r="42">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="AR42" t="n">
-        <v>2.8399636974165</v>
+        <v>2.840044592544006</v>
       </c>
     </row>
     <row r="43">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="AR43" t="n">
-        <v>1.046104328184835</v>
+        <v>1.046422757107766</v>
       </c>
     </row>
     <row r="44">
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         </is>
       </c>
       <c r="AR44" t="n">
-        <v>2.46998020251247</v>
+        <v>2.470110088985282</v>
       </c>
     </row>
     <row r="45">
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="AR45" t="n">
-        <v>1.333869268665748</v>
+        <v>1.334149593208997</v>
       </c>
     </row>
     <row r="46">
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="AR46" t="n">
-        <v>2.671789381551032</v>
+        <v>2.671892545471859</v>
       </c>
     </row>
     <row r="47">
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="AR47" t="n">
-        <v>1.061053156261766</v>
+        <v>1.061369605736401</v>
       </c>
     </row>
     <row r="48">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="AR48" t="n">
-        <v>3.527609788955305</v>
+        <v>3.527599629461233</v>
       </c>
     </row>
     <row r="49">
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="AR49" t="n">
-        <v>1.901924735589108</v>
+        <v>1.90212984109714</v>
       </c>
     </row>
     <row r="50">
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="AP50" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="AR50" t="n">
-        <v>0.3360349945306342</v>
+        <v>0.336447447247588</v>
       </c>
     </row>
     <row r="51">
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="AR51" t="n">
-        <v>2.413922097223981</v>
+        <v>2.4140594066279</v>
       </c>
     </row>
     <row r="52">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="AR52" t="n">
-        <v>1.650410703194753</v>
+        <v>1.643175688606033</v>
       </c>
     </row>
     <row r="53">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="AR53" t="n">
-        <v>1.102162433473325</v>
+        <v>1.102473439465149</v>
       </c>
     </row>
     <row r="54">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="AR54" t="n">
-        <v>1.180643780877211</v>
+        <v>1.180944394765485</v>
       </c>
     </row>
     <row r="55">
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="AR55" t="n">
-        <v>1.879501493473712</v>
+        <v>1.879709568154186</v>
       </c>
     </row>
     <row r="56">
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="AP56" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="AR56" t="n">
-        <v>1.595473760012033</v>
+        <v>1.595719444210115</v>
       </c>
     </row>
     <row r="57">
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="AP57" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="AR57" t="n">
-        <v>1.087213605396394</v>
+        <v>1.087526590836515</v>
       </c>
     </row>
     <row r="58">
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         </is>
       </c>
       <c r="AR58" t="n">
-        <v>0.9040904614539953</v>
+        <v>0.9044276951357317</v>
       </c>
     </row>
     <row r="59">
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="AR59" t="n">
-        <v>1.214278644050304</v>
+        <v>1.214574804179914</v>
       </c>
     </row>
     <row r="60">
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="AR60" t="n">
-        <v>1.404876202031168</v>
+        <v>1.405147124195015</v>
       </c>
     </row>
     <row r="61">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         </is>
       </c>
       <c r="AR61" t="n">
-        <v>0.5453185876076627</v>
+        <v>0.5457033280484835</v>
       </c>
     </row>
     <row r="62">
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         </is>
       </c>
       <c r="AR62" t="n">
-        <v>2.851175318474199</v>
+        <v>2.851254729015483</v>
       </c>
     </row>
     <row r="63">
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="AP63" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         </is>
       </c>
       <c r="AR63" t="n">
-        <v>1.161957745781047</v>
+        <v>1.16226083397969</v>
       </c>
     </row>
     <row r="64">
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         </is>
       </c>
       <c r="AR64" t="n">
-        <v>0.9863090158771131</v>
+        <v>0.9866353625932252</v>
       </c>
     </row>
     <row r="65">
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="AP65" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         </is>
       </c>
       <c r="AR65" t="n">
-        <v>2.025252567223785</v>
+        <v>2.025441342283381</v>
       </c>
     </row>
     <row r="66">
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="AP66" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="AR66" t="n">
-        <v>2.200901297127719</v>
+        <v>2.201066813669845</v>
       </c>
     </row>
     <row r="67">
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="AP67" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="AR67" t="n">
-        <v>0.1267514014536071</v>
+        <v>0.1271915664466938</v>
       </c>
     </row>
     <row r="68">
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="AP68" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="AR68" t="n">
-        <v>3.015612427320435</v>
+        <v>3.015670063930473</v>
       </c>
     </row>
     <row r="69">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="AP69" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ69" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="AR69" t="n">
-        <v>1.068527570300231</v>
+        <v>1.06884303005072</v>
       </c>
     </row>
     <row r="70">
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="AR70" t="n">
-        <v>0.6761208332808049</v>
+        <v>0.6764882535490426</v>
       </c>
     </row>
     <row r="71">
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="AR71" t="n">
-        <v>1.371241338858076</v>
+        <v>1.371516714780586</v>
       </c>
     </row>
     <row r="72">
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AQ72" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         </is>
       </c>
       <c r="AR72" t="n">
-        <v>1.50578079155045</v>
+        <v>1.506038352438303</v>
       </c>
     </row>
     <row r="73">
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="AP73" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AQ73" t="inlineStr">
         <is>
@@ -10160,7 +10160,7 @@
         </is>
       </c>
       <c r="AR73" t="n">
-        <v>2.290594265589304</v>
+        <v>2.290747905441658</v>
       </c>
     </row>
     <row r="74">
@@ -10288,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="AR74" t="n">
-        <v>1.479620342415821</v>
+        <v>1.479881367338191</v>
       </c>
     </row>
     <row r="75">
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="AP75" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
@@ -10430,7 +10430,7 @@
         </is>
       </c>
       <c r="AR75" t="n">
-        <v>0.7022812824154328</v>
+        <v>0.7026452386491537</v>
       </c>
     </row>
     <row r="76">
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AP76" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="AR76" t="n">
-        <v>2.996926392224271</v>
+        <v>2.996986503144677</v>
       </c>
     </row>
     <row r="77">
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="AP77" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="AR77" t="n">
-        <v>2.421396511262446</v>
+        <v>2.421532830942218</v>
       </c>
     </row>
     <row r="78">
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         </is>
       </c>
       <c r="AR78" t="n">
-        <v>2.589570827127914</v>
+        <v>2.589684878014365</v>
       </c>
     </row>
     <row r="79">
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         </is>
       </c>
       <c r="AR79" t="n">
-        <v>3.897967004561259</v>
+        <v>3.897907804235672</v>
       </c>
     </row>
     <row r="80">
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="AP80" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         </is>
       </c>
       <c r="AR80" t="n">
-        <v>2.212112918185417</v>
+        <v>2.212276950141322</v>
       </c>
     </row>
     <row r="81">
@@ -11230,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         </is>
       </c>
       <c r="AR81" t="n">
-        <v>1.150746124723349</v>
+        <v>1.151050697508214</v>
       </c>
     </row>
     <row r="82">
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AP82" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="AR82" t="n">
-        <v>2.929656665878084</v>
+        <v>2.929725684315819</v>
       </c>
     </row>
     <row r="83">
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="AR83" t="n">
-        <v>1.692641142512081</v>
+        <v>1.692873960296244</v>
       </c>
     </row>
     <row r="84">
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         </is>
       </c>
       <c r="AR84" t="n">
-        <v>0.9975206369348106</v>
+        <v>0.9978454990647014</v>
       </c>
     </row>
     <row r="85">
@@ -11762,7 +11762,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="AR85" t="n">
-        <v>1.625371416165893</v>
+        <v>1.625613141467385</v>
       </c>
     </row>
     <row r="86">
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="AP86" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         </is>
       </c>
       <c r="AR86" t="n">
-        <v>0.8106602859731795</v>
+        <v>0.8110098912067603</v>
       </c>
     </row>
     <row r="87">
@@ -12028,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="AR87" t="n">
-        <v>3.639725999532283</v>
+        <v>3.639700994175997</v>
       </c>
     </row>
     <row r="88">
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="AP88" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         </is>
       </c>
       <c r="AR88" t="n">
-        <v>0.9003532544347621</v>
+        <v>0.9006909829785719</v>
       </c>
     </row>
     <row r="89">
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="AP89" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AQ89" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         </is>
       </c>
       <c r="AR89" t="n">
-        <v>2.68300100260873</v>
+        <v>2.683102681943337</v>
       </c>
     </row>
     <row r="90">
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="AP90" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="AR90" t="n">
-        <v>2.731584693858754</v>
+        <v>2.7316799399864</v>
       </c>
     </row>
     <row r="91">
@@ -12550,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="AP91" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         </is>
       </c>
       <c r="AR91" t="n">
-        <v>3.68830969078231</v>
+        <v>3.688278252219063</v>
       </c>
     </row>
     <row r="92">
@@ -12676,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="AP92" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         </is>
       </c>
       <c r="AR92" t="n">
-        <v>1.554364482800473</v>
+        <v>1.554615610481368</v>
       </c>
     </row>
     <row r="93">
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="AP93" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         </is>
       </c>
       <c r="AR93" t="n">
-        <v>0.806923078953947</v>
+        <v>0.8072731790496015</v>
       </c>
     </row>
     <row r="94">
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="AP94" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         </is>
       </c>
       <c r="AR94" t="n">
-        <v>1.883238700492945</v>
+        <v>1.883446280311345</v>
       </c>
     </row>
     <row r="95">
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="AP95" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         </is>
       </c>
       <c r="AR95" t="n">
-        <v>1.404876202031168</v>
+        <v>1.405147124195015</v>
       </c>
     </row>
     <row r="96">
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AP96" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ96" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         </is>
       </c>
       <c r="AR96" t="n">
-        <v>0.5453185876076627</v>
+        <v>0.5457033280484835</v>
       </c>
     </row>
     <row r="97">
@@ -13328,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="AP97" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="AR97" t="n">
-        <v>2.604519655204844</v>
+        <v>2.604631726643</v>
       </c>
     </row>
     <row r="98">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AQ98" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         </is>
       </c>
       <c r="AR98" t="n">
-        <v>2.111208328666138</v>
+        <v>2.111385721898034</v>
       </c>
     </row>
     <row r="99">
@@ -13594,7 +13594,7 @@
         <v>0</v>
       </c>
       <c r="AP99" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AQ99" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="AR99" t="n">
-        <v>1.928085184723736</v>
+        <v>1.928286826197252</v>
       </c>
     </row>
     <row r="100">
@@ -13732,7 +13732,7 @@
         <v>0</v>
       </c>
       <c r="AP100" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AQ100" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         </is>
       </c>
       <c r="AR100" t="n">
-        <v>1.363766924819609</v>
+        <v>1.364043290466268</v>
       </c>
     </row>
     <row r="101">
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AP101" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ101" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         </is>
       </c>
       <c r="AR101" t="n">
-        <v>0.7247045245308288</v>
+        <v>0.725065511592107</v>
       </c>
     </row>
     <row r="102">
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         </is>
       </c>
       <c r="AR102" t="n">
-        <v>1.143271710684884</v>
+        <v>1.143577273193897</v>
       </c>
     </row>
     <row r="103">
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="AP103" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AQ103" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         </is>
       </c>
       <c r="AR103" t="n">
-        <v>4.267576778763367</v>
+        <v>4.267468636578682</v>
       </c>
     </row>
     <row r="104">
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         </is>
       </c>
       <c r="AR104" t="n">
-        <v>3.000663599243503</v>
+        <v>3.000723215301836</v>
       </c>
     </row>
     <row r="105">
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         </is>
       </c>
       <c r="AR105" t="n">
-        <v>0.9302509105886239</v>
+        <v>0.9305846802358431</v>
       </c>
     </row>
     <row r="106">
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="AP106" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         </is>
       </c>
       <c r="AR106" t="n">
-        <v>2.290594265589304</v>
+        <v>2.29074790544166</v>
       </c>
     </row>
     <row r="107">
@@ -14658,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="AP107" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AQ107" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         </is>
       </c>
       <c r="AR107" t="n">
-        <v>1.44972268626196</v>
+        <v>1.449987670080921</v>
       </c>
     </row>
     <row r="108">
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="AP108" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         </is>
       </c>
       <c r="AR108" t="n">
-        <v>0.8741928053001342</v>
+        <v>0.8745339978784605</v>
       </c>
     </row>
     <row r="109">
@@ -14926,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="AP109" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ109" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         </is>
       </c>
       <c r="AR109" t="n">
-        <v>2.331703542800862</v>
+        <v>2.331851739170405</v>
       </c>
     </row>
     <row r="110">
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="AP110" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AQ110" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         </is>
       </c>
       <c r="AR110" t="n">
-        <v>2.4849290305894</v>
+        <v>2.485056937613917</v>
       </c>
     </row>
     <row r="111">
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="AP111" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ111" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         </is>
       </c>
       <c r="AR111" t="n">
-        <v>1.244176300204165</v>
+        <v>1.244468501437185</v>
       </c>
     </row>
     <row r="112">
@@ -15324,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AQ112" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="AR112" t="n">
-        <v>3.853120520330469</v>
+        <v>3.853067258349767</v>
       </c>
     </row>
     <row r="113">
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
       <c r="AP113" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AQ113" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="AR113" t="n">
-        <v>2.80670255494533</v>
+        <v>2.806787854345293</v>
       </c>
     </row>
     <row r="114">
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="AP114" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AQ114" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         </is>
       </c>
       <c r="AR114" t="n">
-        <v>1.490831963473519</v>
+        <v>1.491091503809668</v>
       </c>
     </row>
     <row r="115">
@@ -15716,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="AP115" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AQ115" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="AR115" t="n">
-        <v>2.032726981262251</v>
+        <v>2.032914766597699</v>
       </c>
     </row>
     <row r="116">
@@ -15846,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="AP116" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AQ116" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         </is>
       </c>
       <c r="AR116" t="n">
-        <v>0.2911885102998435</v>
+        <v>0.2916069013616829</v>
       </c>
     </row>
     <row r="117">
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
       <c r="AP117" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ117" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         </is>
       </c>
       <c r="AR117" t="n">
-        <v>2.185952469050789</v>
+        <v>2.18611996504121</v>
       </c>
     </row>
     <row r="118">
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="AP118" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ118" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         </is>
       </c>
       <c r="AR118" t="n">
-        <v>0.7359161455885264</v>
+        <v>0.7362756480635833</v>
       </c>
     </row>
     <row r="119">
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="AP119" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AQ119" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         </is>
       </c>
       <c r="AR119" t="n">
-        <v>0.8704555982809017</v>
+        <v>0.8707972857213018</v>
       </c>
     </row>
     <row r="120">
@@ -16376,7 +16376,7 @@
         <v>0</v>
       </c>
       <c r="AP120" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AQ120" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         </is>
       </c>
       <c r="AR120" t="n">
-        <v>1.019943879050207</v>
+        <v>1.020265772007655</v>
       </c>
     </row>
     <row r="121">
@@ -16506,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="AP121" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AQ121" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         </is>
       </c>
       <c r="AR121" t="n">
-        <v>1.169432159819512</v>
+        <v>1.169734258294008</v>
       </c>
     </row>
     <row r="122">
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ122" t="inlineStr">
         <is>
@@ -16648,7 +16648,7 @@
         </is>
       </c>
       <c r="AR122" t="n">
-        <v>2.111208328666137</v>
+        <v>2.111385721898034</v>
       </c>
     </row>
     <row r="123">
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
       <c r="AP123" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AQ123" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         </is>
       </c>
       <c r="AR123" t="n">
-        <v>1.752436454819803</v>
+        <v>1.752661354810786</v>
       </c>
     </row>
     <row r="124">
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="AP124" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AQ124" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         </is>
       </c>
       <c r="AR124" t="n">
-        <v>1.883238700492945</v>
+        <v>1.883446280311345</v>
       </c>
     </row>
     <row r="125">
@@ -17032,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="AP125" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AQ125" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         </is>
       </c>
       <c r="AR125" t="n">
-        <v>2.69794983068566</v>
+        <v>2.69804953057197</v>
       </c>
     </row>
     <row r="126">
@@ -17166,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="AP126" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AQ126" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         </is>
       </c>
       <c r="AR126" t="n">
-        <v>2.051413016358414</v>
+        <v>2.051598327383493</v>
       </c>
     </row>
     <row r="127">
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="AP127" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AQ127" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         </is>
       </c>
       <c r="AR127" t="n">
-        <v>3.422967992416792</v>
+        <v>3.422971689060784</v>
       </c>
     </row>
     <row r="128">
@@ -17426,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="AP128" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AQ128" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="AR128" t="n">
-        <v>1.105899640492557</v>
+        <v>1.106210151622308</v>
       </c>
     </row>
     <row r="129">
@@ -17568,7 +17568,7 @@
         </is>
       </c>
       <c r="AR129" t="n">
-        <v>1.176906573857978</v>
+        <v>1.169734258294009</v>
       </c>
     </row>
     <row r="130">
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AP130" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AQ130" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="AR130" t="n">
-        <v>3.964863010205524</v>
+        <v>3.964794951848816</v>
       </c>
     </row>
     <row r="131">
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="AP131" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AQ131" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         </is>
       </c>
       <c r="AR131" t="n">
-        <v>0.8442951491462731</v>
+        <v>0.8446403006211898</v>
       </c>
     </row>
     <row r="132">
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="AP132" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ132" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         </is>
       </c>
       <c r="AR132" t="n">
-        <v>1.565576103858172</v>
+        <v>1.565825746952845</v>
       </c>
     </row>
     <row r="133">
@@ -18092,7 +18092,7 @@
         <v>0</v>
       </c>
       <c r="AP133" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ133" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         </is>
       </c>
       <c r="AR133" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="134">
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AQ134" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         </is>
       </c>
       <c r="AR134" t="n">
-        <v>1.520729619627381</v>
+        <v>1.520985201066939</v>
       </c>
     </row>
     <row r="135">
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="AP135" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ135" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         </is>
       </c>
       <c r="AR135" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="136">
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="AP136" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ136" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         </is>
       </c>
       <c r="AR136" t="n">
-        <v>1.046104328184835</v>
+        <v>1.046422757107766</v>
       </c>
     </row>
     <row r="137">
@@ -18626,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="AP137" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ137" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         </is>
       </c>
       <c r="AR137" t="n">
-        <v>0.8667183912616685</v>
+        <v>0.867060573564143</v>
       </c>
     </row>
     <row r="138">
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
       <c r="AP138" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AQ138" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         </is>
       </c>
       <c r="AR138" t="n">
-        <v>1.39366458097347</v>
+        <v>1.393936987723538</v>
       </c>
     </row>
     <row r="139">
@@ -18892,7 +18892,7 @@
         <v>0</v>
       </c>
       <c r="AP139" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ139" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         </is>
       </c>
       <c r="AR139" t="n">
-        <v>0.8779300123193667</v>
+        <v>0.87827071003562</v>
       </c>
     </row>
     <row r="140">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="AP140" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AQ140" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         </is>
       </c>
       <c r="AR140" t="n">
-        <v>2.544724342897122</v>
+        <v>2.54484433212846</v>
       </c>
     </row>
     <row r="141">
@@ -19160,7 +19160,7 @@
         <v>0</v>
       </c>
       <c r="AP141" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ141" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         </is>
       </c>
       <c r="AR141" t="n">
-        <v>0.6163255209730818</v>
+        <v>0.6167008590345004</v>
       </c>
     </row>
     <row r="142">
@@ -19290,7 +19290,7 @@
         <v>0</v>
       </c>
       <c r="AP142" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AQ142" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         </is>
       </c>
       <c r="AR142" t="n">
-        <v>3.837797971551614</v>
+        <v>3.837746738505415</v>
       </c>
     </row>
     <row r="143">
@@ -19424,7 +19424,7 @@
         <v>0</v>
       </c>
       <c r="AP143" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AQ143" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="AR143" t="n">
-        <v>2.395236062127816</v>
+        <v>2.395375845842106</v>
       </c>
     </row>
     <row r="144">
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="AP144" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ144" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="AR144" t="n">
-        <v>1.93182239174297</v>
+        <v>1.93202353835441</v>
       </c>
     </row>
     <row r="145">
@@ -19686,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="AP145" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ145" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         </is>
       </c>
       <c r="AR145" t="n">
-        <v>1.244176300204165</v>
+        <v>1.244468501437185</v>
       </c>
     </row>
     <row r="146">
@@ -19824,7 +19824,7 @@
         <v>0</v>
       </c>
       <c r="AP146" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AQ146" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         </is>
       </c>
       <c r="AR146" t="n">
-        <v>2.316754714723932</v>
+        <v>2.31690489054177</v>
       </c>
     </row>
     <row r="147">
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="AP147" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AQ147" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         </is>
       </c>
       <c r="AR147" t="n">
-        <v>1.595473760012033</v>
+        <v>1.595719444210115</v>
       </c>
     </row>
     <row r="148">
@@ -20088,7 +20088,7 @@
         <v>0</v>
       </c>
       <c r="AP148" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AQ148" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="AR148" t="n">
-        <v>1.199329815973374</v>
+        <v>1.199627955551279</v>
       </c>
     </row>
     <row r="149">
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="AP149" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ149" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="AR149" t="n">
-        <v>1.195592608954141</v>
+        <v>1.19589124339412</v>
       </c>
     </row>
     <row r="150">
@@ -20352,7 +20352,7 @@
         <v>0</v>
       </c>
       <c r="AP150" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AQ150" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         </is>
       </c>
       <c r="AR150" t="n">
-        <v>2.210991756079648</v>
+        <v>2.211155936494174</v>
       </c>
     </row>
     <row r="151">
@@ -20486,7 +20486,7 @@
         <v>0</v>
       </c>
       <c r="AP151" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AQ151" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         </is>
       </c>
       <c r="AR151" t="n">
-        <v>3.67709806972461</v>
+        <v>3.677068115747586</v>
       </c>
     </row>
     <row r="152">
@@ -20618,7 +20618,7 @@
         <v>0</v>
       </c>
       <c r="AP152" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ152" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="AR152" t="n">
-        <v>1.961720047896832</v>
+        <v>1.961917235611681</v>
       </c>
     </row>
     <row r="153">
@@ -20752,7 +20752,7 @@
         <v>0</v>
       </c>
       <c r="AP153" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ153" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         </is>
       </c>
       <c r="AR153" t="n">
-        <v>1.715064384627477</v>
+        <v>1.715294233239198</v>
       </c>
     </row>
     <row r="154">
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="AP154" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ154" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="AR154" t="n">
-        <v>0.8667183912616685</v>
+        <v>0.867060573564143</v>
       </c>
     </row>
     <row r="155">
@@ -21018,7 +21018,7 @@
         <v>0</v>
       </c>
       <c r="AP155" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AQ155" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="AR155" t="n">
-        <v>1.303971612511888</v>
+        <v>1.304255895951727</v>
       </c>
     </row>
     <row r="156">
@@ -21156,7 +21156,7 @@
         <v>0</v>
       </c>
       <c r="AP156" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AQ156" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="AR156" t="n">
-        <v>2.028989774243019</v>
+        <v>2.02917805444054</v>
       </c>
     </row>
     <row r="157">
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="AP157" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AQ157" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         </is>
       </c>
       <c r="AR157" t="n">
-        <v>0.8667183912616692</v>
+        <v>0.867060573564143</v>
       </c>
     </row>
     <row r="158">
@@ -21418,7 +21418,7 @@
         <v>0</v>
       </c>
       <c r="AP158" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AQ158" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="AR158" t="n">
-        <v>3.807900315397753</v>
+        <v>3.807853041248145</v>
       </c>
     </row>
     <row r="159">
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="AP159" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AQ159" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         </is>
       </c>
       <c r="AR159" t="n">
-        <v>2.772693971070313</v>
+        <v>2.772783773715148</v>
       </c>
     </row>
     <row r="160">
@@ -21684,7 +21684,7 @@
         <v>0</v>
       </c>
       <c r="AP160" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ160" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         </is>
       </c>
       <c r="AR160" t="n">
-        <v>1.22175305808877</v>
+        <v>1.222048228494232</v>
       </c>
     </row>
     <row r="161">
@@ -21822,7 +21822,7 @@
         </is>
       </c>
       <c r="AR161" t="n">
-        <v>1.262862335300328</v>
+        <v>1.255678637908662</v>
       </c>
     </row>
     <row r="162">
@@ -21944,7 +21944,7 @@
         <v>0</v>
       </c>
       <c r="AP162" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ162" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="AR162" t="n">
-        <v>0.7994486649154811</v>
+        <v>0.7997997547352833</v>
       </c>
     </row>
     <row r="163">
@@ -22082,7 +22082,7 @@
         <v>0</v>
       </c>
       <c r="AP163" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AQ163" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         </is>
       </c>
       <c r="AR163" t="n">
-        <v>3.079144946647389</v>
+        <v>3.079194170602172</v>
       </c>
     </row>
     <row r="164">
@@ -22224,7 +22224,7 @@
         </is>
       </c>
       <c r="AR164" t="n">
-        <v>1.711327177608244</v>
+        <v>1.704084096767721</v>
       </c>
     </row>
     <row r="165">
@@ -22348,7 +22348,7 @@
         <v>0</v>
       </c>
       <c r="AP165" t="n">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AQ165" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         </is>
       </c>
       <c r="AR165" t="n">
-        <v>3.150151880012809</v>
+        <v>3.15019170158819</v>
       </c>
     </row>
     <row r="166">
@@ -22490,7 +22490,7 @@
         </is>
       </c>
       <c r="AR166" t="n">
-        <v>1.587999345973568</v>
+        <v>1.58077259558148</v>
       </c>
     </row>
     <row r="167">
@@ -22614,7 +22614,7 @@
         <v>0</v>
       </c>
       <c r="AP167" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AQ167" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         </is>
       </c>
       <c r="AR167" t="n">
-        <v>1.483357549435054</v>
+        <v>1.483618079495351</v>
       </c>
     </row>
     <row r="168">
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="AP168" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ168" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="AR168" t="n">
-        <v>1.584262138954335</v>
+        <v>1.58450930773864</v>
       </c>
     </row>
     <row r="169">
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="AP169" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AQ169" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         </is>
       </c>
       <c r="AR169" t="n">
-        <v>0.7060184894346659</v>
+        <v>0.7063819508063132</v>
       </c>
     </row>
     <row r="170">
@@ -23008,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="AP170" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ170" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         </is>
       </c>
       <c r="AR170" t="n">
-        <v>1.961720047896832</v>
+        <v>1.961917235611681</v>
       </c>
     </row>
     <row r="171">
@@ -23140,7 +23140,7 @@
         <v>0</v>
       </c>
       <c r="AP171" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AQ171" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         </is>
       </c>
       <c r="AR171" t="n">
-        <v>3.71820734693617</v>
+        <v>3.718171949476333</v>
       </c>
     </row>
     <row r="172">
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="AP172" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AQ172" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         </is>
       </c>
       <c r="AR172" t="n">
-        <v>2.563410377993284</v>
+        <v>2.563527892914253</v>
       </c>
     </row>
     <row r="173">
@@ -23400,7 +23400,7 @@
         <v>0</v>
       </c>
       <c r="AP173" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ173" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         </is>
       </c>
       <c r="AR173" t="n">
-        <v>0.4705744472230096</v>
+        <v>0.4709690849053065</v>
       </c>
     </row>
     <row r="174">
@@ -23530,7 +23530,7 @@
         <v>0</v>
       </c>
       <c r="AP174" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AQ174" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         </is>
       </c>
       <c r="AR174" t="n">
-        <v>1.688903935492849</v>
+        <v>1.689137248139086</v>
       </c>
     </row>
     <row r="175">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="AP175" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AQ175" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="AR175" t="n">
-        <v>1.44972268626196</v>
+        <v>1.449987670080921</v>
       </c>
     </row>
     <row r="176">
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="AP176" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AQ176" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="AR176" t="n">
-        <v>3.48911655665721</v>
+        <v>3.489111494242496</v>
       </c>
     </row>
     <row r="177">
@@ -23920,7 +23920,7 @@
         <v>0</v>
       </c>
       <c r="AP177" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AQ177" t="inlineStr">
         <is>
@@ -23928,7 +23928,7 @@
         </is>
       </c>
       <c r="AR177" t="n">
-        <v>3.856484006647777</v>
+        <v>3.856430299291208</v>
       </c>
     </row>
     <row r="178">
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
       <c r="AP178" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AQ178" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="AR178" t="n">
-        <v>3.710732932897704</v>
+        <v>3.710698525162015</v>
       </c>
     </row>
     <row r="179">
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="AP179" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AQ179" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         </is>
       </c>
       <c r="AR179" t="n">
-        <v>3.153889087032042</v>
+        <v>3.15392841374535</v>
       </c>
     </row>
     <row r="180">
@@ -24322,7 +24322,7 @@
         <v>0</v>
       </c>
       <c r="AP180" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ180" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         </is>
       </c>
       <c r="AR180" t="n">
-        <v>1.386190166935005</v>
+        <v>1.38646356340922</v>
       </c>
     </row>
     <row r="181">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="AP181" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ181" t="inlineStr">
         <is>
@@ -24462,7 +24462,7 @@
         </is>
       </c>
       <c r="AR181" t="n">
-        <v>1.169432159819513</v>
+        <v>1.169734258294009</v>
       </c>
     </row>
     <row r="182">
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="AP182" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AQ182" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         </is>
       </c>
       <c r="AR182" t="n">
-        <v>2.073836258473811</v>
+        <v>2.074018600326445</v>
       </c>
     </row>
     <row r="183">
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="AP183" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AQ183" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         </is>
       </c>
       <c r="AR183" t="n">
-        <v>1.688903935492849</v>
+        <v>1.689137248139086</v>
       </c>
     </row>
     <row r="184">
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="AP184" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AQ184" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         </is>
       </c>
       <c r="AR184" t="n">
-        <v>4.424539473571137</v>
+        <v>4.424410547179352</v>
       </c>
     </row>
     <row r="185">
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="AP185" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ185" t="inlineStr">
         <is>
@@ -24948,7 +24948,7 @@
         </is>
       </c>
       <c r="AR185" t="n">
-        <v>2.152317605877695</v>
+        <v>2.152489555626782</v>
       </c>
     </row>
     <row r="186">
@@ -25074,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="AP186" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AQ186" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
         </is>
       </c>
       <c r="AR186" t="n">
-        <v>2.066361844435344</v>
+        <v>2.066545176012129</v>
       </c>
     </row>
     <row r="187">
@@ -25206,7 +25206,7 @@
         <v>0</v>
       </c>
       <c r="AP187" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AQ187" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         </is>
       </c>
       <c r="AR187" t="n">
-        <v>2.724110279820289</v>
+        <v>2.724206515672083</v>
       </c>
     </row>
     <row r="188">
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
       <c r="AP188" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AQ188" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="AR188" t="n">
-        <v>1.382452959915772</v>
+        <v>1.382726851252062</v>
       </c>
     </row>
     <row r="189">
@@ -25468,7 +25468,7 @@
         <v>0</v>
       </c>
       <c r="AP189" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ189" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         </is>
       </c>
       <c r="AR189" t="n">
-        <v>1.102162433473325</v>
+        <v>1.102473439465149</v>
       </c>
     </row>
     <row r="190">
@@ -25598,7 +25598,7 @@
         <v>0</v>
       </c>
       <c r="AP190" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AQ190" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="AR190" t="n">
-        <v>2.215850125204651</v>
+        <v>2.216013662298482</v>
       </c>
     </row>
     <row r="191">
@@ -25732,7 +25732,7 @@
         <v>0</v>
       </c>
       <c r="AP191" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ191" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         </is>
       </c>
       <c r="AR191" t="n">
-        <v>4.087069679734432</v>
+        <v>4.086985439387909</v>
       </c>
     </row>
     <row r="192">
@@ -25864,7 +25864,7 @@
         <v>0</v>
       </c>
       <c r="AP192" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AQ192" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         </is>
       </c>
       <c r="AR192" t="n">
-        <v>2.892284595685756</v>
+        <v>2.89235856274423</v>
       </c>
     </row>
     <row r="193">
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="AP193" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ193" t="inlineStr">
         <is>
@@ -26002,7 +26002,7 @@
         </is>
       </c>
       <c r="AR193" t="n">
-        <v>2.929656665878084</v>
+        <v>2.929725684315819</v>
       </c>
     </row>
     <row r="194">
@@ -26122,7 +26122,7 @@
         <v>0</v>
       </c>
       <c r="AP194" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ194" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         </is>
       </c>
       <c r="AR194" t="n">
-        <v>1.565576103858171</v>
+        <v>1.565825746952845</v>
       </c>
     </row>
     <row r="195">
@@ -26252,7 +26252,7 @@
         <v>0</v>
       </c>
       <c r="AP195" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AQ195" t="inlineStr">
         <is>
@@ -26260,7 +26260,7 @@
         </is>
       </c>
       <c r="AR195" t="n">
-        <v>0.3061373383767731</v>
+        <v>0.3065537499903173</v>
       </c>
     </row>
     <row r="196">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="AP196" t="n">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AQ196" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="AR196" t="n">
-        <v>2.039080233194947</v>
+        <v>2.039267177264868</v>
       </c>
     </row>
     <row r="197">
@@ -26514,7 +26514,7 @@
         <v>0</v>
       </c>
       <c r="AP197" t="n">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AQ197" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="AR197" t="n">
-        <v>2.32796633578163</v>
+        <v>2.328115027013248</v>
       </c>
     </row>
     <row r="198">
@@ -26650,7 +26650,7 @@
         </is>
       </c>
       <c r="AR198" t="n">
-        <v>2.066735565137268</v>
+        <v>2.059445422913527</v>
       </c>
     </row>
     <row r="199">
@@ -26772,7 +26772,7 @@
         <v>0</v>
       </c>
       <c r="AP199" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AQ199" t="inlineStr">
         <is>
@@ -26780,7 +26780,7 @@
         </is>
       </c>
       <c r="AR199" t="n">
-        <v>3.393070336262932</v>
+        <v>3.393077991803514</v>
       </c>
     </row>
     <row r="200">
@@ -26906,7 +26906,7 @@
         <v>0</v>
       </c>
       <c r="AP200" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AQ200" t="inlineStr">
         <is>
@@ -26914,7 +26914,7 @@
         </is>
       </c>
       <c r="AR200" t="n">
-        <v>1.132060089627185</v>
+        <v>1.132367136722419</v>
       </c>
     </row>
     <row r="201">
@@ -27038,7 +27038,7 @@
         <v>0</v>
       </c>
       <c r="AP201" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AQ201" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="AR201" t="n">
-        <v>0.8069230789539463</v>
+        <v>0.8072731790496015</v>
       </c>
     </row>
     <row r="202">
@@ -27170,7 +27170,7 @@
         <v>0</v>
       </c>
       <c r="AP202" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AQ202" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         </is>
       </c>
       <c r="AR202" t="n">
-        <v>1.311446026550352</v>
+        <v>1.311729320266043</v>
       </c>
     </row>
     <row r="203">
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
       <c r="AP203" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ203" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         </is>
       </c>
       <c r="AR203" t="n">
-        <v>1.195592608954141</v>
+        <v>1.19589124339412</v>
       </c>
     </row>
     <row r="204">
@@ -27434,7 +27434,7 @@
         <v>0</v>
       </c>
       <c r="AP204" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AQ204" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         </is>
       </c>
       <c r="AR204" t="n">
-        <v>2.298068679627769</v>
+        <v>2.298221329755976</v>
       </c>
     </row>
     <row r="205">
@@ -27564,7 +27564,7 @@
         <v>0</v>
       </c>
       <c r="AP205" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AQ205" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         </is>
       </c>
       <c r="AR205" t="n">
-        <v>3.175191167041667</v>
+        <v>3.175227673041154</v>
       </c>
     </row>
     <row r="206">
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="AP206" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ206" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         </is>
       </c>
       <c r="AR206" t="n">
-        <v>1.655269072319755</v>
+        <v>1.655506838724657</v>
       </c>
     </row>
     <row r="207">
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="AP207" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ207" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         </is>
       </c>
       <c r="AR207" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="208">
@@ -27960,7 +27960,7 @@
         <v>0</v>
       </c>
       <c r="AP208" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ208" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         </is>
       </c>
       <c r="AR208" t="n">
-        <v>1.550627275781241</v>
+        <v>1.550878898324209</v>
       </c>
     </row>
     <row r="209">
@@ -28094,7 +28094,7 @@
         <v>0</v>
       </c>
       <c r="AP209" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AQ209" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         </is>
       </c>
       <c r="AR209" t="n">
-        <v>2.047675809339182</v>
+        <v>2.047861615226333</v>
       </c>
     </row>
     <row r="210">
@@ -28228,7 +28228,7 @@
         <v>0</v>
       </c>
       <c r="AP210" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ210" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         </is>
       </c>
       <c r="AR210" t="n">
-        <v>3.131465844916646</v>
+        <v>3.131508140802397</v>
       </c>
     </row>
     <row r="211">
@@ -28358,7 +28358,7 @@
         <v>0</v>
       </c>
       <c r="AP211" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AQ211" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         </is>
       </c>
       <c r="AR211" t="n">
-        <v>0.3920930998191232</v>
+        <v>0.3924981296049712</v>
       </c>
     </row>
     <row r="212">
@@ -28496,7 +28496,7 @@
         <v>0</v>
       </c>
       <c r="AP212" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AQ212" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         </is>
       </c>
       <c r="AR212" t="n">
-        <v>1.25165071424263</v>
+        <v>1.251941925751502</v>
       </c>
     </row>
     <row r="213">
@@ -28628,7 +28628,7 @@
         <v>0</v>
       </c>
       <c r="AP213" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AQ213" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         </is>
       </c>
       <c r="AR213" t="n">
-        <v>1.498306377511984</v>
+        <v>1.498564928123986</v>
       </c>
     </row>
     <row r="214">
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="AP214" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AQ214" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         </is>
       </c>
       <c r="AR214" t="n">
-        <v>3.807900315397754</v>
+        <v>3.807853041248145</v>
       </c>
     </row>
     <row r="215">
@@ -28896,7 +28896,7 @@
         <v>0</v>
       </c>
       <c r="AP215" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ215" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         </is>
       </c>
       <c r="AR215" t="n">
-        <v>3.466693314541813</v>
+        <v>3.466691221299544</v>
       </c>
     </row>
     <row r="216">
@@ -29040,7 +29040,7 @@
         </is>
       </c>
       <c r="AR216" t="n">
-        <v>0.9190392895309256</v>
+        <v>0.9119011194500486</v>
       </c>
     </row>
     <row r="217">
@@ -29166,7 +29166,7 @@
         <v>0</v>
       </c>
       <c r="AP217" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AQ217" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         </is>
       </c>
       <c r="AR217" t="n">
-        <v>2.294331472608535</v>
+        <v>2.294484617598818</v>
       </c>
     </row>
     <row r="218">
@@ -29294,7 +29294,7 @@
         <v>0</v>
       </c>
       <c r="AP218" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ218" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         </is>
       </c>
       <c r="AR218" t="n">
-        <v>1.083476398377161</v>
+        <v>1.083789878679355</v>
       </c>
     </row>
     <row r="219">
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="AP219" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ219" t="inlineStr">
         <is>
@@ -29436,7 +29436,7 @@
         </is>
       </c>
       <c r="AR219" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="220">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="AP220" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AQ220" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         </is>
       </c>
       <c r="AR220" t="n">
-        <v>3.021218237849283</v>
+        <v>3.02127513216621</v>
       </c>
     </row>
     <row r="221">
@@ -29692,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="AP221" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AQ221" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         </is>
       </c>
       <c r="AR221" t="n">
-        <v>3.7331561750131</v>
+        <v>3.733118798104969</v>
       </c>
     </row>
     <row r="222">
@@ -29824,7 +29824,7 @@
         <v>0</v>
       </c>
       <c r="AP222" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ222" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         </is>
       </c>
       <c r="AR222" t="n">
-        <v>1.195592608954141</v>
+        <v>1.19589124339412</v>
       </c>
     </row>
     <row r="223">
@@ -29954,7 +29954,7 @@
         <v>0</v>
       </c>
       <c r="AP223" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AQ223" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         </is>
       </c>
       <c r="AR223" t="n">
-        <v>2.301805886647001</v>
+        <v>2.301958041913134</v>
       </c>
     </row>
     <row r="224">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="AP224" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ224" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         </is>
       </c>
       <c r="AR224" t="n">
-        <v>0.5453185876076627</v>
+        <v>0.5457033280484835</v>
       </c>
     </row>
     <row r="225">
@@ -30214,7 +30214,7 @@
         <v>0</v>
       </c>
       <c r="AP225" t="n">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ225" t="inlineStr">
         <is>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="AR225" t="n">
-        <v>1.371241338858076</v>
+        <v>1.371516714780586</v>
       </c>
     </row>
     <row r="226">
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="AP226" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AQ226" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         </is>
       </c>
       <c r="AR226" t="n">
-        <v>0.2239187839536556</v>
+        <v>0.2243460825328234</v>
       </c>
     </row>
     <row r="227">
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="AP227" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AQ227" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         </is>
       </c>
       <c r="AR227" t="n">
-        <v>0.7433905596269921</v>
+        <v>0.7437490723779014</v>
       </c>
     </row>
     <row r="228">
@@ -30600,7 +30600,7 @@
         <v>0</v>
       </c>
       <c r="AP228" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AQ228" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         </is>
       </c>
       <c r="AR228" t="n">
-        <v>0.6200627279923152</v>
+        <v>0.6204375711916599</v>
       </c>
     </row>
     <row r="229">
@@ -30738,7 +30738,7 @@
         </is>
       </c>
       <c r="AR229" t="n">
-        <v>0.6424859701077104</v>
+        <v>0.6353844198202949</v>
       </c>
     </row>
     <row r="230">
@@ -30864,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="AP230" t="n">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ230" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         </is>
       </c>
       <c r="AR230" t="n">
-        <v>2.421396511262446</v>
+        <v>2.421532830942218</v>
       </c>
     </row>
     <row r="231">
@@ -30998,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="AP231" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AQ231" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         </is>
       </c>
       <c r="AR231" t="n">
-        <v>3.056721704531994</v>
+        <v>3.05677389765922</v>
       </c>
     </row>
     <row r="232">
@@ -31134,7 +31134,7 @@
         <v>0</v>
       </c>
       <c r="AP232" t="n">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AQ232" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         </is>
       </c>
       <c r="AR232" t="n">
-        <v>3.378121508185999</v>
+        <v>3.378131143174879</v>
       </c>
     </row>
     <row r="233">
@@ -31266,7 +31266,7 @@
         <v>0</v>
       </c>
       <c r="AP233" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AQ233" t="inlineStr">
         <is>
@@ -31274,7 +31274,7 @@
         </is>
       </c>
       <c r="AR233" t="n">
-        <v>2.724110279820289</v>
+        <v>2.724206515672083</v>
       </c>
     </row>
     <row r="234">
@@ -31396,7 +31396,7 @@
         <v>0</v>
       </c>
       <c r="AP234" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AQ234" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="AR234" t="n">
-        <v>3.639725999532283</v>
+        <v>3.639700994175997</v>
       </c>
     </row>
     <row r="235">
@@ -31526,7 +31526,7 @@
         <v>0</v>
       </c>
       <c r="AP235" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AQ235" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         </is>
       </c>
       <c r="AR235" t="n">
-        <v>1.348818096742679</v>
+        <v>1.349096441837632</v>
       </c>
     </row>
     <row r="236">
@@ -31658,7 +31658,7 @@
         <v>0</v>
       </c>
       <c r="AP236" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AQ236" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="AR236" t="n">
-        <v>3.056721704531994</v>
+        <v>3.05677389765922</v>
       </c>
     </row>
     <row r="237">
@@ -31790,7 +31790,7 @@
         <v>0</v>
       </c>
       <c r="AP237" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AQ237" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         </is>
       </c>
       <c r="AR237" t="n">
-        <v>1.296497198473422</v>
+        <v>1.296782471637408</v>
       </c>
     </row>
     <row r="238">
@@ -31924,7 +31924,7 @@
         <v>0</v>
       </c>
       <c r="AP238" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AQ238" t="inlineStr">
         <is>
@@ -31932,7 +31932,7 @@
         </is>
       </c>
       <c r="AR238" t="n">
-        <v>2.208375711166185</v>
+        <v>2.208540237984163</v>
       </c>
     </row>
     <row r="239">
@@ -32054,7 +32054,7 @@
         <v>0</v>
       </c>
       <c r="AP239" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AQ239" t="inlineStr">
         <is>
@@ -32062,7 +32062,7 @@
         </is>
       </c>
       <c r="AR239" t="n">
-        <v>2.171003640973859</v>
+        <v>2.171173116412575</v>
       </c>
     </row>
     <row r="240">
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
       <c r="AP240" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ240" t="inlineStr">
         <is>
@@ -32188,7 +32188,7 @@
         </is>
       </c>
       <c r="AR240" t="n">
-        <v>2.025252567223785</v>
+        <v>2.025441342283381</v>
       </c>
     </row>
     <row r="241">
@@ -32314,7 +32314,7 @@
         <v>0</v>
       </c>
       <c r="AP241" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ241" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         </is>
       </c>
       <c r="AR241" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="242">
@@ -32444,7 +32444,7 @@
         <v>0</v>
       </c>
       <c r="AP242" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AQ242" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         </is>
       </c>
       <c r="AR242" t="n">
-        <v>2.103733914627671</v>
+        <v>2.103912297583717</v>
       </c>
     </row>
     <row r="243">
@@ -32578,7 +32578,7 @@
         <v>0</v>
       </c>
       <c r="AP243" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ243" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         </is>
       </c>
       <c r="AR243" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="244">
@@ -32708,7 +32708,7 @@
         <v>0</v>
       </c>
       <c r="AP244" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AQ244" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         </is>
       </c>
       <c r="AR244" t="n">
-        <v>2.395236062127817</v>
+        <v>2.395375845842106</v>
       </c>
     </row>
     <row r="245">
@@ -32838,7 +32838,7 @@
         <v>0</v>
       </c>
       <c r="AP245" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AQ245" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         </is>
       </c>
       <c r="AR245" t="n">
-        <v>3.48911655665721</v>
+        <v>3.489111494242496</v>
       </c>
     </row>
     <row r="246">
@@ -32972,7 +32972,7 @@
         <v>0</v>
       </c>
       <c r="AP246" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AQ246" t="inlineStr">
         <is>
@@ -32980,7 +32980,7 @@
         </is>
       </c>
       <c r="AR246" t="n">
-        <v>1.528204033665846</v>
+        <v>1.528458625381256</v>
       </c>
     </row>
     <row r="247">
@@ -33102,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="AP247" t="n">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AQ247" t="inlineStr">
         <is>
@@ -33110,7 +33110,7 @@
         </is>
       </c>
       <c r="AR247" t="n">
-        <v>2.959554322031943</v>
+        <v>2.959619381573089</v>
       </c>
     </row>
     <row r="248">
@@ -33232,7 +33232,7 @@
         <v>0</v>
       </c>
       <c r="AP248" t="n">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AQ248" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         </is>
       </c>
       <c r="AR248" t="n">
-        <v>2.096259500589206</v>
+        <v>2.096438873269399</v>
       </c>
     </row>
     <row r="249">
@@ -33366,7 +33366,7 @@
         <v>0</v>
       </c>
       <c r="AP249" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AQ249" t="inlineStr">
         <is>
@@ -33374,7 +33374,7 @@
         </is>
       </c>
       <c r="AR249" t="n">
-        <v>1.25165071424263</v>
+        <v>1.251941925751502</v>
       </c>
     </row>
     <row r="250">
@@ -33496,7 +33496,7 @@
         <v>0</v>
       </c>
       <c r="AP250" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AQ250" t="inlineStr">
         <is>
@@ -33504,7 +33504,7 @@
         </is>
       </c>
       <c r="AR250" t="n">
-        <v>1.516992412608148</v>
+        <v>1.51724848890978</v>
       </c>
     </row>
     <row r="251">
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="AP251" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AQ251" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         </is>
       </c>
       <c r="AR251" t="n">
-        <v>0.6200627279923152</v>
+        <v>0.6204375711916599</v>
       </c>
     </row>
     <row r="252">
@@ -33752,7 +33752,7 @@
         <v>0</v>
       </c>
       <c r="AP252" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ252" t="inlineStr">
         <is>
@@ -33760,7 +33760,7 @@
         </is>
       </c>
       <c r="AR252" t="n">
-        <v>0.8368207351078074</v>
+        <v>0.8371668763068723</v>
       </c>
     </row>
     <row r="253">
@@ -33884,7 +33884,7 @@
         <v>0</v>
       </c>
       <c r="AP253" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AQ253" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         </is>
       </c>
       <c r="AR253" t="n">
-        <v>1.341343682704213</v>
+        <v>1.341623017523314</v>
       </c>
     </row>
     <row r="254">
@@ -34022,7 +34022,7 @@
         <v>0</v>
       </c>
       <c r="AP254" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ254" t="inlineStr">
         <is>
@@ -34030,7 +34030,7 @@
         </is>
       </c>
       <c r="AR254" t="n">
-        <v>1.894450321550644</v>
+        <v>1.894656416782821</v>
       </c>
     </row>
     <row r="255">
@@ -34154,7 +34154,7 @@
         <v>0</v>
       </c>
       <c r="AP255" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ255" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         </is>
       </c>
       <c r="AR255" t="n">
-        <v>1.244176300204165</v>
+        <v>1.244468501437185</v>
       </c>
     </row>
     <row r="256">
@@ -34286,7 +34286,7 @@
         <v>0</v>
       </c>
       <c r="AP256" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ256" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         </is>
       </c>
       <c r="AR256" t="n">
-        <v>2.679263795589497</v>
+        <v>2.679365969786178</v>
       </c>
     </row>
     <row r="257">
@@ -34416,7 +34416,7 @@
         <v>0</v>
       </c>
       <c r="AP257" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ257" t="inlineStr">
         <is>
@@ -34424,7 +34424,7 @@
         </is>
       </c>
       <c r="AR257" t="n">
-        <v>2.929656665878084</v>
+        <v>2.929725684315819</v>
       </c>
     </row>
     <row r="258">
@@ -34546,7 +34546,7 @@
         <v>0</v>
       </c>
       <c r="AP258" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AQ258" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         </is>
       </c>
       <c r="AR258" t="n">
-        <v>2.68300100260873</v>
+        <v>2.683102681943337</v>
       </c>
     </row>
     <row r="259">
@@ -34678,7 +34678,7 @@
         <v>0</v>
       </c>
       <c r="AP259" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AQ259" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         </is>
       </c>
       <c r="AR259" t="n">
-        <v>2.68300100260873</v>
+        <v>2.683102681943337</v>
       </c>
     </row>
     <row r="260">
@@ -34812,7 +34812,7 @@
         <v>0</v>
       </c>
       <c r="AP260" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AQ260" t="inlineStr">
         <is>
@@ -34820,7 +34820,7 @@
         </is>
       </c>
       <c r="AR260" t="n">
-        <v>1.913136356646806</v>
+        <v>1.913339977568615</v>
       </c>
     </row>
     <row r="261">
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
       <c r="AP261" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AQ261" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         </is>
       </c>
       <c r="AR261" t="n">
-        <v>0.3136117524152389</v>
+        <v>0.3140271743046354</v>
       </c>
     </row>
     <row r="262">
@@ -35080,7 +35080,7 @@
         <v>395</v>
       </c>
       <c r="AP262" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AQ262" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         </is>
       </c>
       <c r="AR262" t="n">
-        <v>1.980406082992995</v>
+        <v>1.980600796397474</v>
       </c>
     </row>
     <row r="263">
@@ -35214,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="AP263" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AQ263" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         </is>
       </c>
       <c r="AR263" t="n">
-        <v>2.156054812896928</v>
+        <v>2.15622626778394</v>
       </c>
     </row>
     <row r="264">
@@ -35346,7 +35346,7 @@
         <v>0</v>
       </c>
       <c r="AP264" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ264" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         </is>
       </c>
       <c r="AR264" t="n">
-        <v>1.576787724915869</v>
+        <v>1.577035883424321</v>
       </c>
     </row>
     <row r="265">
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="AP265" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AQ265" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         </is>
       </c>
       <c r="AR265" t="n">
-        <v>1.318920440588817</v>
+        <v>1.319202744580361</v>
       </c>
     </row>
     <row r="266">
@@ -35612,7 +35612,7 @@
         <v>0</v>
       </c>
       <c r="AP266" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AQ266" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         </is>
       </c>
       <c r="AR266" t="n">
-        <v>2.047675809339182</v>
+        <v>2.047861615226333</v>
       </c>
     </row>
     <row r="267">
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="AP267" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AQ267" t="inlineStr">
         <is>
@@ -35754,7 +35754,7 @@
         </is>
       </c>
       <c r="AR267" t="n">
-        <v>2.645628932416404</v>
+        <v>2.645735560371747</v>
       </c>
     </row>
     <row r="268">
@@ -35876,7 +35876,7 @@
         <v>0</v>
       </c>
       <c r="AP268" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ268" t="inlineStr">
         <is>
@@ -35884,7 +35884,7 @@
         </is>
       </c>
       <c r="AR268" t="n">
-        <v>2.290594265589304</v>
+        <v>2.29074790544166</v>
       </c>
     </row>
     <row r="269">
@@ -36008,7 +36008,7 @@
         <v>0</v>
       </c>
       <c r="AP269" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AQ269" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         </is>
       </c>
       <c r="AR269" t="n">
-        <v>2.256959402416209</v>
+        <v>2.257117496027227</v>
       </c>
     </row>
     <row r="270">
@@ -36138,7 +36138,7 @@
         <v>0</v>
       </c>
       <c r="AP270" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AQ270" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="AR270" t="n">
-        <v>1.10963684751179</v>
+        <v>1.109946863779466</v>
       </c>
     </row>
     <row r="271">
@@ -36268,7 +36268,7 @@
         <v>0</v>
       </c>
       <c r="AP271" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ271" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         </is>
       </c>
       <c r="AR271" t="n">
-        <v>0.8368207351078074</v>
+        <v>0.8371668763068723</v>
       </c>
     </row>
     <row r="272">
@@ -36406,7 +36406,7 @@
         <v>0</v>
       </c>
       <c r="AP272" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AQ272" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         </is>
       </c>
       <c r="AR272" t="n">
-        <v>2.660577760493333</v>
+        <v>2.660682409000383</v>
       </c>
     </row>
     <row r="273">
@@ -36540,7 +36540,7 @@
         <v>0</v>
       </c>
       <c r="AP273" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AQ273" t="inlineStr">
         <is>
@@ -36548,7 +36548,7 @@
         </is>
       </c>
       <c r="AR273" t="n">
-        <v>3.05298449751276</v>
+        <v>3.053037185502061</v>
       </c>
     </row>
     <row r="274">
@@ -36672,7 +36672,7 @@
         <v>0</v>
       </c>
       <c r="AP274" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ274" t="inlineStr">
         <is>
@@ -36680,7 +36680,7 @@
         </is>
       </c>
       <c r="AR274" t="n">
-        <v>1.195592608954141</v>
+        <v>1.19589124339412</v>
       </c>
     </row>
     <row r="275">
@@ -36802,7 +36802,7 @@
         <v>0</v>
       </c>
       <c r="AP275" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ275" t="inlineStr">
         <is>
@@ -36810,7 +36810,7 @@
         </is>
       </c>
       <c r="AR275" t="n">
-        <v>1.09468801943486</v>
+        <v>1.095000015150831</v>
       </c>
     </row>
     <row r="276">
@@ -36936,7 +36936,7 @@
         <v>0</v>
       </c>
       <c r="AP276" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ276" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         </is>
       </c>
       <c r="AR276" t="n">
-        <v>2.82501486933957</v>
+        <v>2.825097743915371</v>
       </c>
     </row>
     <row r="277">
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="AP277" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ277" t="inlineStr">
         <is>
@@ -37074,7 +37074,7 @@
         </is>
       </c>
       <c r="AR277" t="n">
-        <v>1.244176300204165</v>
+        <v>1.244468501437185</v>
       </c>
     </row>
     <row r="278">
@@ -37196,7 +37196,7 @@
         <v>0</v>
       </c>
       <c r="AP278" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AQ278" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         </is>
       </c>
       <c r="AR278" t="n">
-        <v>2.373186540714344</v>
+        <v>2.373329244114868</v>
       </c>
     </row>
     <row r="279">
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="AP279" t="n">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AQ279" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         </is>
       </c>
       <c r="AR279" t="n">
-        <v>2.484929030589401</v>
+        <v>2.485056937613917</v>
       </c>
     </row>
     <row r="280">
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="AP280" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ280" t="inlineStr">
         <is>
@@ -37474,7 +37474,7 @@
         </is>
       </c>
       <c r="AR280" t="n">
-        <v>1.397401787992703</v>
+        <v>1.397673699880697</v>
       </c>
     </row>
     <row r="281">
@@ -37598,7 +37598,7 @@
         <v>0</v>
       </c>
       <c r="AP281" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AQ281" t="inlineStr">
         <is>
@@ -37606,7 +37606,7 @@
         </is>
       </c>
       <c r="AR281" t="n">
-        <v>2.303674490156618</v>
+        <v>2.303826397991714</v>
       </c>
     </row>
     <row r="282">
@@ -37732,7 +37732,7 @@
         <v>0</v>
       </c>
       <c r="AP282" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ282" t="inlineStr">
         <is>
@@ -37740,7 +37740,7 @@
         </is>
       </c>
       <c r="AR282" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="283">
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="AP283" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AQ283" t="inlineStr">
         <is>
@@ -37878,7 +37878,7 @@
         </is>
       </c>
       <c r="AR283" t="n">
-        <v>0.1005909523189792</v>
+        <v>0.1010345813465825</v>
       </c>
     </row>
     <row r="284">
@@ -38002,7 +38002,7 @@
         <v>0</v>
       </c>
       <c r="AP284" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AQ284" t="inlineStr">
         <is>
@@ -38010,7 +38010,7 @@
         </is>
       </c>
       <c r="AR284" t="n">
-        <v>3.266005297609021</v>
+        <v>3.266029778460114</v>
       </c>
     </row>
     <row r="285">
@@ -38134,7 +38134,7 @@
         <v>0</v>
       </c>
       <c r="AP285" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AQ285" t="inlineStr">
         <is>
@@ -38142,7 +38142,7 @@
         </is>
       </c>
       <c r="AR285" t="n">
-        <v>2.111582049368059</v>
+        <v>2.111759393113749</v>
       </c>
     </row>
     <row r="286">
@@ -38268,7 +38268,7 @@
         <v>0</v>
       </c>
       <c r="AP286" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ286" t="inlineStr">
         <is>
@@ -38276,7 +38276,7 @@
         </is>
       </c>
       <c r="AR286" t="n">
-        <v>1.421693633617716</v>
+        <v>1.42196232890223</v>
       </c>
     </row>
     <row r="287">
@@ -38394,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="AP287" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AQ287" t="inlineStr">
         <is>
@@ -38402,7 +38402,7 @@
         </is>
       </c>
       <c r="AR287" t="n">
-        <v>1.928085184723736</v>
+        <v>1.928286826197252</v>
       </c>
     </row>
     <row r="288">
@@ -38524,7 +38524,7 @@
         <v>0</v>
       </c>
       <c r="AP288" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AQ288" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         </is>
       </c>
       <c r="AR288" t="n">
-        <v>2.006566532127622</v>
+        <v>2.006757781497586</v>
       </c>
     </row>
     <row r="289">
@@ -38658,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="AP289" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ289" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         </is>
       </c>
       <c r="AR289" t="n">
-        <v>1.206804230011838</v>
+        <v>1.207101379865597</v>
       </c>
     </row>
     <row r="290">
@@ -38788,7 +38788,7 @@
         <v>0</v>
       </c>
       <c r="AP290" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ290" t="inlineStr">
         <is>
@@ -38796,7 +38796,7 @@
         </is>
       </c>
       <c r="AR290" t="n">
-        <v>2.294331472608536</v>
+        <v>2.294484617598816</v>
       </c>
     </row>
     <row r="291">
@@ -38920,7 +38920,7 @@
         <v>0</v>
       </c>
       <c r="AP291" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ291" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         </is>
       </c>
       <c r="AR291" t="n">
-        <v>1.083476398377161</v>
+        <v>1.083789878679355</v>
       </c>
     </row>
     <row r="292">
@@ -39054,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="AP292" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ292" t="inlineStr">
         <is>
@@ -39062,7 +39062,7 @@
         </is>
       </c>
       <c r="AR292" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="293">
@@ -39184,7 +39184,7 @@
         <v>0</v>
       </c>
       <c r="AP293" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AQ293" t="inlineStr">
         <is>
@@ -39192,7 +39192,7 @@
         </is>
       </c>
       <c r="AR293" t="n">
-        <v>1.180643780877211</v>
+        <v>1.180944394765485</v>
       </c>
     </row>
     <row r="294">
@@ -39320,7 +39320,7 @@
         <v>0</v>
       </c>
       <c r="AP294" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AQ294" t="inlineStr">
         <is>
@@ -39328,7 +39328,7 @@
         </is>
       </c>
       <c r="AR294" t="n">
-        <v>0.6499603841461756</v>
+        <v>0.6503312684489306</v>
       </c>
     </row>
     <row r="295">
@@ -39452,7 +39452,7 @@
         <v>0</v>
       </c>
       <c r="AP295" t="n">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AQ295" t="inlineStr">
         <is>
@@ -39460,7 +39460,7 @@
         </is>
       </c>
       <c r="AR295" t="n">
-        <v>3.815374729436218</v>
+        <v>3.815326465562463</v>
       </c>
     </row>
     <row r="296">
@@ -39586,7 +39586,7 @@
         <v>0</v>
       </c>
       <c r="AP296" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AQ296" t="inlineStr">
         <is>
@@ -39594,7 +39594,7 @@
         </is>
       </c>
       <c r="AR296" t="n">
-        <v>1.315183233569585</v>
+        <v>1.315466032423203</v>
       </c>
     </row>
     <row r="297">
@@ -39724,7 +39724,7 @@
         <v>0</v>
       </c>
       <c r="AP297" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AQ297" t="inlineStr">
         <is>
@@ -39732,7 +39732,7 @@
         </is>
       </c>
       <c r="AR297" t="n">
-        <v>2.413922097223979</v>
+        <v>2.4140594066279</v>
       </c>
     </row>
     <row r="298">
@@ -39850,7 +39850,7 @@
         <v>0</v>
       </c>
       <c r="AP298" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AQ298" t="inlineStr">
         <is>
@@ -39858,7 +39858,7 @@
         </is>
       </c>
       <c r="AR298" t="n">
-        <v>1.965457254916065</v>
+        <v>1.965653947768841</v>
       </c>
     </row>
     <row r="299">
@@ -39984,7 +39984,7 @@
         <v>0</v>
       </c>
       <c r="AP299" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AQ299" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         </is>
       </c>
       <c r="AR299" t="n">
-        <v>1.341343682704214</v>
+        <v>1.341623017523315</v>
       </c>
     </row>
     <row r="300">
@@ -40122,7 +40122,7 @@
         <v>0</v>
       </c>
       <c r="AP300" t="n">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AQ300" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         </is>
       </c>
       <c r="AR300" t="n">
-        <v>1.498306377511984</v>
+        <v>1.498564928123986</v>
       </c>
     </row>
     <row r="301">
@@ -40252,7 +40252,7 @@
         <v>0</v>
       </c>
       <c r="AP301" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ301" t="inlineStr">
         <is>
@@ -40260,7 +40260,7 @@
         </is>
       </c>
       <c r="AR301" t="n">
-        <v>1.752436454819803</v>
+        <v>1.752661354810786</v>
       </c>
     </row>
     <row r="302">
@@ -40382,7 +40382,7 @@
         <v>0</v>
       </c>
       <c r="AP302" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ302" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         </is>
       </c>
       <c r="AR302" t="n">
-        <v>4.521706856071186</v>
+        <v>4.521565063265481</v>
       </c>
     </row>
     <row r="303">
@@ -40512,7 +40512,7 @@
         <v>0</v>
       </c>
       <c r="AP303" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AQ303" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         </is>
       </c>
       <c r="AR303" t="n">
-        <v>3.355698266070604</v>
+        <v>3.355710870231925</v>
       </c>
     </row>
     <row r="304">
@@ -40646,7 +40646,7 @@
         <v>0</v>
       </c>
       <c r="AP304" t="n">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AQ304" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         </is>
       </c>
       <c r="AR304" t="n">
-        <v>1.886975907512179</v>
+        <v>1.887182992468505</v>
       </c>
     </row>
     <row r="305">
@@ -40778,7 +40778,7 @@
         <v>0</v>
       </c>
       <c r="AP305" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AQ305" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="AR305" t="n">
-        <v>1.210541437031071</v>
+        <v>1.210838092022755</v>
       </c>
     </row>
     <row r="306">
@@ -40908,7 +40908,7 @@
         <v>0</v>
       </c>
       <c r="AP306" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ306" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         </is>
       </c>
       <c r="AR306" t="n">
-        <v>0.7882370438577835</v>
+        <v>0.7885896182638072</v>
       </c>
     </row>
     <row r="307">
@@ -41046,7 +41046,7 @@
         <v>0</v>
       </c>
       <c r="AP307" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AQ307" t="inlineStr">
         <is>
@@ -41054,7 +41054,7 @@
         </is>
       </c>
       <c r="AR307" t="n">
-        <v>0.7546021806846899</v>
+        <v>0.7549592088493777</v>
       </c>
     </row>
     <row r="308">
@@ -41176,7 +41176,7 @@
         <v>0</v>
       </c>
       <c r="AP308" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AQ308" t="inlineStr">
         <is>
@@ -41184,7 +41184,7 @@
         </is>
       </c>
       <c r="AR308" t="n">
-        <v>2.970765943089643</v>
+        <v>2.970829518044566</v>
       </c>
     </row>
     <row r="309">
@@ -41310,7 +41310,7 @@
         <v>0</v>
       </c>
       <c r="AP309" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AQ309" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         </is>
       </c>
       <c r="AR309" t="n">
-        <v>1.191855401934907</v>
+        <v>1.192154531236961</v>
       </c>
     </row>
     <row r="310">
@@ -41440,7 +41440,7 @@
         <v>0</v>
       </c>
       <c r="AP310" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ310" t="inlineStr">
         <is>
@@ -41448,7 +41448,7 @@
         </is>
       </c>
       <c r="AR310" t="n">
-        <v>2.929656665878084</v>
+        <v>2.929725684315819</v>
       </c>
     </row>
     <row r="311">
@@ -41572,7 +41572,7 @@
         <v>0</v>
       </c>
       <c r="AP311" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AQ311" t="inlineStr">
         <is>
@@ -41580,7 +41580,7 @@
         </is>
       </c>
       <c r="AR311" t="n">
-        <v>1.502043584531217</v>
+        <v>1.502301640281144</v>
       </c>
     </row>
     <row r="312">
@@ -41710,7 +41710,7 @@
         <v>0</v>
       </c>
       <c r="AP312" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AQ312" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         </is>
       </c>
       <c r="AR312" t="n">
-        <v>2.062624637416112</v>
+        <v>2.06280846385497</v>
       </c>
     </row>
     <row r="313">
@@ -41844,7 +41844,7 @@
         <v>0</v>
       </c>
       <c r="AP313" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AQ313" t="inlineStr">
         <is>
@@ -41852,7 +41852,7 @@
         </is>
       </c>
       <c r="AR313" t="n">
-        <v>2.096259500589205</v>
+        <v>2.096438873269399</v>
       </c>
     </row>
     <row r="314">
@@ -41976,7 +41976,7 @@
         <v>0</v>
       </c>
       <c r="AP314" t="n">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AQ314" t="inlineStr">
         <is>
@@ -41984,7 +41984,7 @@
         </is>
       </c>
       <c r="AR314" t="n">
-        <v>2.896395523406914</v>
+        <v>2.896468946117105</v>
       </c>
     </row>
     <row r="315">
@@ -42110,7 +42110,7 @@
         <v>0</v>
       </c>
       <c r="AP315" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ315" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         </is>
       </c>
       <c r="AR315" t="n">
-        <v>0.3360349945306342</v>
+        <v>0.336447447247588</v>
       </c>
     </row>
     <row r="316">
@@ -42242,7 +42242,7 @@
         <v>0</v>
       </c>
       <c r="AP316" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AQ316" t="inlineStr">
         <is>
@@ -42250,7 +42250,7 @@
         </is>
       </c>
       <c r="AR316" t="n">
-        <v>1.161957745781047</v>
+        <v>1.16226083397969</v>
       </c>
     </row>
     <row r="317">
@@ -42376,7 +42376,7 @@
         <v>0</v>
       </c>
       <c r="AP317" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AQ317" t="inlineStr">
         <is>
@@ -42384,7 +42384,7 @@
         </is>
       </c>
       <c r="AR317" t="n">
-        <v>3.964863010205524</v>
+        <v>3.964794951848816</v>
       </c>
     </row>
     <row r="318">
@@ -42510,7 +42510,7 @@
         <v>0</v>
       </c>
       <c r="AP318" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AQ318" t="inlineStr">
         <is>
@@ -42518,7 +42518,7 @@
         </is>
       </c>
       <c r="AR318" t="n">
-        <v>0.8442951491462731</v>
+        <v>0.8446403006211898</v>
       </c>
     </row>
     <row r="319">
@@ -42642,7 +42642,7 @@
         <v>0</v>
       </c>
       <c r="AP319" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ319" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         </is>
       </c>
       <c r="AR319" t="n">
-        <v>2.780168385108778</v>
+        <v>2.780257198029465</v>
       </c>
     </row>
     <row r="320">
@@ -42772,7 +42772,7 @@
         <v>0</v>
       </c>
       <c r="AP320" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ320" t="inlineStr">
         <is>
@@ -42780,7 +42780,7 @@
         </is>
       </c>
       <c r="AR320" t="n">
-        <v>1.195592608954141</v>
+        <v>1.19589124339412</v>
       </c>
     </row>
     <row r="321">
@@ -42902,7 +42902,7 @@
         <v>0</v>
       </c>
       <c r="AP321" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ321" t="inlineStr">
         <is>
@@ -42910,7 +42910,7 @@
         </is>
       </c>
       <c r="AR321" t="n">
-        <v>2.570884792031751</v>
+        <v>2.57100131722857</v>
       </c>
     </row>
     <row r="322">
@@ -43032,7 +43032,7 @@
         <v>0</v>
       </c>
       <c r="AP322" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AQ322" t="inlineStr">
         <is>
@@ -43040,7 +43040,7 @@
         </is>
       </c>
       <c r="AR322" t="n">
-        <v>3.639725999532283</v>
+        <v>3.639700994175997</v>
       </c>
     </row>
     <row r="323">
@@ -43160,7 +43160,7 @@
         <v>0</v>
       </c>
       <c r="AP323" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AQ323" t="inlineStr">
         <is>
@@ -43168,7 +43168,7 @@
         </is>
       </c>
       <c r="AR323" t="n">
-        <v>2.253222195396976</v>
+        <v>2.253380783870069</v>
       </c>
     </row>
     <row r="324">
@@ -43292,7 +43292,7 @@
         <v>0</v>
       </c>
       <c r="AP324" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AQ324" t="inlineStr">
         <is>
@@ -43300,7 +43300,7 @@
         </is>
       </c>
       <c r="AR324" t="n">
-        <v>2.051413016358414</v>
+        <v>2.051598327383493</v>
       </c>
     </row>
     <row r="325">
@@ -43426,7 +43426,7 @@
         <v>0</v>
       </c>
       <c r="AP325" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ325" t="inlineStr">
         <is>
@@ -43434,7 +43434,7 @@
         </is>
       </c>
       <c r="AR325" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="326">
@@ -43560,7 +43560,7 @@
         <v>0</v>
       </c>
       <c r="AP326" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ326" t="inlineStr">
         <is>
@@ -43568,7 +43568,7 @@
         </is>
       </c>
       <c r="AR326" t="n">
-        <v>1.887349628214101</v>
+        <v>1.88755666368422</v>
       </c>
     </row>
     <row r="327">
@@ -43694,7 +43694,7 @@
         <v>0</v>
       </c>
       <c r="AP327" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AQ327" t="inlineStr">
         <is>
@@ -43702,7 +43702,7 @@
         </is>
       </c>
       <c r="AR327" t="n">
-        <v>2.361601198954722</v>
+        <v>2.361745436427676</v>
       </c>
     </row>
     <row r="328">
@@ -43826,7 +43826,7 @@
         <v>0</v>
       </c>
       <c r="AP328" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AQ328" t="inlineStr">
         <is>
@@ -43834,7 +43834,7 @@
         </is>
       </c>
       <c r="AR328" t="n">
-        <v>2.585833620108682</v>
+        <v>2.585948165857205</v>
       </c>
     </row>
     <row r="329">
@@ -43958,7 +43958,7 @@
         <v>0</v>
       </c>
       <c r="AP329" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AQ329" t="inlineStr">
         <is>
@@ -43966,7 +43966,7 @@
         </is>
       </c>
       <c r="AR329" t="n">
-        <v>1.476256856098511</v>
+        <v>1.476518326396748</v>
       </c>
     </row>
     <row r="330">
@@ -44088,7 +44088,7 @@
         <v>0</v>
       </c>
       <c r="AP330" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AQ330" t="inlineStr">
         <is>
@@ -44096,7 +44096,7 @@
         </is>
       </c>
       <c r="AR330" t="n">
-        <v>1.244176300204165</v>
+        <v>1.244468501437185</v>
       </c>
     </row>
     <row r="331">
@@ -44218,7 +44218,7 @@
         <v>0</v>
       </c>
       <c r="AP331" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AQ331" t="inlineStr">
         <is>
@@ -44226,7 +44226,7 @@
         </is>
       </c>
       <c r="AR331" t="n">
-        <v>2.152317605877695</v>
+        <v>2.152489555626782</v>
       </c>
     </row>
     <row r="332">
@@ -44348,7 +44348,7 @@
         <v>0</v>
       </c>
       <c r="AP332" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AQ332" t="inlineStr">
         <is>
@@ -44356,7 +44356,7 @@
         </is>
       </c>
       <c r="AR332" t="n">
-        <v>0.885404426357832</v>
+        <v>0.8857441343499368</v>
       </c>
     </row>
     <row r="333">
@@ -44482,7 +44482,7 @@
         <v>0</v>
       </c>
       <c r="AP333" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AQ333" t="inlineStr">
         <is>
@@ -44490,7 +44490,7 @@
         </is>
       </c>
       <c r="AR333" t="n">
-        <v>2.040201395300717</v>
+        <v>2.040388190912017</v>
       </c>
     </row>
     <row r="334">
@@ -44616,7 +44616,7 @@
         <v>0</v>
       </c>
       <c r="AP334" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AQ334" t="inlineStr">
         <is>
@@ -44624,7 +44624,7 @@
         </is>
       </c>
       <c r="AR334" t="n">
-        <v>3.538821410013004</v>
+        <v>3.538809765932708</v>
       </c>
     </row>
     <row r="335">
@@ -44750,7 +44750,7 @@
         <v>0</v>
       </c>
       <c r="AP335" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ335" t="inlineStr">
         <is>
@@ -44758,7 +44758,7 @@
         </is>
       </c>
       <c r="AR335" t="n">
-        <v>1.158220538761815</v>
+        <v>1.158524121822532</v>
       </c>
     </row>
     <row r="336">
@@ -44880,7 +44880,7 @@
         <v>0</v>
       </c>
       <c r="AP336" t="n">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AQ336" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         </is>
       </c>
       <c r="AR336" t="n">
-        <v>3.090356567705086</v>
+        <v>3.090404307073649</v>
       </c>
     </row>
     <row r="337">
@@ -45014,7 +45014,7 @@
         <v>0</v>
       </c>
       <c r="AP337" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ337" t="inlineStr">
         <is>
@@ -45022,7 +45022,7 @@
         </is>
       </c>
       <c r="AR337" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="338">
@@ -45144,7 +45144,7 @@
         <v>0</v>
       </c>
       <c r="AP338" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AQ338" t="inlineStr">
         <is>
@@ -45152,7 +45152,7 @@
         </is>
       </c>
       <c r="AR338" t="n">
-        <v>1.93182239174297</v>
+        <v>1.93202353835441</v>
       </c>
     </row>
     <row r="339">
@@ -45274,7 +45274,7 @@
         <v>0</v>
       </c>
       <c r="AP339" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AQ339" t="inlineStr">
         <is>
@@ -45282,7 +45282,7 @@
         </is>
       </c>
       <c r="AR339" t="n">
-        <v>2.873972281291517</v>
+        <v>2.874048673174152</v>
       </c>
     </row>
     <row r="340">
@@ -45404,7 +45404,7 @@
         <v>0</v>
       </c>
       <c r="AP340" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AQ340" t="inlineStr">
         <is>
@@ -45412,7 +45412,7 @@
         </is>
       </c>
       <c r="AR340" t="n">
-        <v>3.964863010205524</v>
+        <v>3.964794951848816</v>
       </c>
     </row>
     <row r="341">
@@ -45534,7 +45534,7 @@
         <v>0</v>
       </c>
       <c r="AP341" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AQ341" t="inlineStr">
         <is>
@@ -45542,7 +45542,7 @@
         </is>
       </c>
       <c r="AR341" t="n">
-        <v>1.584262138954335</v>
+        <v>1.584509307738638</v>
       </c>
     </row>
     <row r="342">
@@ -45664,7 +45664,7 @@
         <v>0</v>
       </c>
       <c r="AP342" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ342" t="inlineStr">
         <is>
@@ -45672,7 +45672,7 @@
         </is>
       </c>
       <c r="AR342" t="n">
-        <v>1.382452959915772</v>
+        <v>1.382726851252062</v>
       </c>
     </row>
     <row r="343">
@@ -45794,7 +45794,7 @@
         <v>0</v>
       </c>
       <c r="AP343" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ343" t="inlineStr">
         <is>
@@ -45802,7 +45802,7 @@
         </is>
       </c>
       <c r="AR343" t="n">
-        <v>1.830917802223689</v>
+        <v>1.831132310111121</v>
       </c>
     </row>
     <row r="344">
@@ -45924,7 +45924,7 @@
         <v>0</v>
       </c>
       <c r="AP344" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ344" t="inlineStr">
         <is>
@@ -45932,7 +45932,7 @@
         </is>
       </c>
       <c r="AR344" t="n">
-        <v>1.184380987896443</v>
+        <v>1.184681106922644</v>
       </c>
     </row>
     <row r="345">
@@ -46054,7 +46054,7 @@
         <v>0</v>
       </c>
       <c r="AP345" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AQ345" t="inlineStr">
         <is>
@@ -46062,7 +46062,7 @@
         </is>
       </c>
       <c r="AR345" t="n">
-        <v>0.9676229807809502</v>
+        <v>0.9679518018074313</v>
       </c>
     </row>
     <row r="346">
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
       <c r="AP346" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ346" t="inlineStr">
         <is>
@@ -46194,7 +46194,7 @@
         </is>
       </c>
       <c r="AR346" t="n">
-        <v>1.703852763569779</v>
+        <v>1.704084096767722</v>
       </c>
     </row>
     <row r="347">
@@ -46320,7 +46320,7 @@
         <v>0</v>
       </c>
       <c r="AP347" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AQ347" t="inlineStr">
         <is>
@@ -46328,7 +46328,7 @@
         </is>
       </c>
       <c r="AR347" t="n">
-        <v>1.722538798665942</v>
+        <v>1.722767657553516</v>
       </c>
     </row>
     <row r="348">
@@ -46450,7 +46450,7 @@
         <v>0</v>
       </c>
       <c r="AP348" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AQ348" t="inlineStr">
         <is>
@@ -46458,7 +46458,7 @@
         </is>
       </c>
       <c r="AR348" t="n">
-        <v>2.249484988377744</v>
+        <v>2.249644071712911</v>
       </c>
     </row>
     <row r="349">
@@ -46582,7 +46582,7 @@
         <v>0</v>
       </c>
       <c r="AP349" t="n">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AQ349" t="inlineStr">
         <is>
@@ -46590,7 +46590,7 @@
         </is>
       </c>
       <c r="AR349" t="n">
-        <v>3.120254223858948</v>
+        <v>3.120298004330919</v>
       </c>
     </row>
     <row r="350">
@@ -46716,7 +46716,7 @@
         <v>0</v>
       </c>
       <c r="AP350" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AQ350" t="inlineStr">
         <is>
@@ -46724,7 +46724,7 @@
         </is>
       </c>
       <c r="AR350" t="n">
-        <v>1.333869268665748</v>
+        <v>1.334149593208997</v>
       </c>
     </row>
     <row r="351">
@@ -46848,7 +46848,7 @@
         <v>0</v>
       </c>
       <c r="AP351" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ351" t="inlineStr">
         <is>
@@ -46856,7 +46856,7 @@
         </is>
       </c>
       <c r="AR351" t="n">
-        <v>2.597045241166379</v>
+        <v>2.597158302328682</v>
       </c>
     </row>
     <row r="352">
@@ -46978,7 +46978,7 @@
         <v>0</v>
       </c>
       <c r="AP352" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AQ352" t="inlineStr">
         <is>
@@ -46986,7 +46986,7 @@
         </is>
       </c>
       <c r="AR352" t="n">
-        <v>1.890713114531411</v>
+        <v>1.890919704625664</v>
       </c>
     </row>
     <row r="353">
@@ -47108,7 +47108,7 @@
         <v>0</v>
       </c>
       <c r="AP353" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AQ353" t="inlineStr">
         <is>
@@ -47116,7 +47116,7 @@
         </is>
       </c>
       <c r="AR353" t="n">
-        <v>1.460934307319658</v>
+        <v>1.461197806552398</v>
       </c>
     </row>
     <row r="354">
@@ -47242,7 +47242,7 @@
         <v>0</v>
       </c>
       <c r="AP354" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AQ354" t="inlineStr">
         <is>
@@ -47250,7 +47250,7 @@
         </is>
       </c>
       <c r="AR354" t="n">
-        <v>1.44972268626196</v>
+        <v>1.449987670080921</v>
       </c>
     </row>
     <row r="355">
@@ -47380,7 +47380,7 @@
         <v>0</v>
       </c>
       <c r="AP355" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AQ355" t="inlineStr">
         <is>
@@ -47388,7 +47388,7 @@
         </is>
       </c>
       <c r="AR355" t="n">
-        <v>2.406447683185514</v>
+        <v>2.406585982313581</v>
       </c>
     </row>
     <row r="356">
@@ -47510,7 +47510,7 @@
         <v>0</v>
       </c>
       <c r="AP356" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ356" t="inlineStr">
         <is>
@@ -47518,7 +47518,7 @@
         </is>
       </c>
       <c r="AR356" t="n">
-        <v>1.251650714242631</v>
+        <v>1.251941925751503</v>
       </c>
     </row>
     <row r="357">
@@ -47642,7 +47642,7 @@
         <v>0</v>
       </c>
       <c r="AP357" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ357" t="inlineStr">
         <is>
@@ -47650,7 +47650,7 @@
         </is>
       </c>
       <c r="AR357" t="n">
-        <v>2.384024441070119</v>
+        <v>2.38416570937063</v>
       </c>
     </row>
     <row r="358">
@@ -47772,7 +47772,7 @@
         <v>0</v>
       </c>
       <c r="AP358" t="n">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AQ358" t="inlineStr">
         <is>
@@ -47780,7 +47780,7 @@
         </is>
       </c>
       <c r="AR358" t="n">
-        <v>0.5640046227038247</v>
+        <v>0.5643868888342767</v>
       </c>
     </row>
     <row r="359">
@@ -47904,7 +47904,7 @@
         <v>0</v>
       </c>
       <c r="AP359" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AQ359" t="inlineStr">
         <is>
@@ -47912,7 +47912,7 @@
         </is>
       </c>
       <c r="AR359" t="n">
-        <v>1.580524931935101</v>
+        <v>1.580772595581479</v>
       </c>
     </row>
     <row r="360">
@@ -48038,7 +48038,7 @@
         <v>0</v>
       </c>
       <c r="AP360" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ360" t="inlineStr">
         <is>
@@ -48046,7 +48046,7 @@
         </is>
       </c>
       <c r="AR360" t="n">
-        <v>1.722538798665942</v>
+        <v>1.722767657553516</v>
       </c>
     </row>
     <row r="361">
@@ -48174,7 +48174,7 @@
         <v>0</v>
       </c>
       <c r="AP361" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AQ361" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         </is>
       </c>
       <c r="AR361" t="n">
-        <v>1.39366458097347</v>
+        <v>1.393936987723538</v>
       </c>
     </row>
     <row r="362">
@@ -48318,7 +48318,7 @@
         </is>
       </c>
       <c r="AR362" t="n">
-        <v>2.088785086550741</v>
+        <v>2.081492024640764</v>
       </c>
     </row>
     <row r="363">
@@ -48446,7 +48446,7 @@
         <v>0</v>
       </c>
       <c r="AP363" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ363" t="inlineStr">
         <is>
@@ -48454,7 +48454,7 @@
         </is>
       </c>
       <c r="AR363" t="n">
-        <v>2.174740847993092</v>
+        <v>2.174909828569733</v>
       </c>
     </row>
     <row r="364">
@@ -48578,7 +48578,7 @@
         <v>0</v>
       </c>
       <c r="AP364" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AQ364" t="inlineStr">
         <is>
@@ -48586,7 +48586,7 @@
         </is>
       </c>
       <c r="AR364" t="n">
-        <v>1.580524931935101</v>
+        <v>1.580772595581479</v>
       </c>
     </row>
     <row r="365">
@@ -48712,7 +48712,7 @@
         <v>0</v>
       </c>
       <c r="AP365" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ365" t="inlineStr">
         <is>
@@ -48720,7 +48720,7 @@
         </is>
       </c>
       <c r="AR365" t="n">
-        <v>4.506758027994256</v>
+        <v>4.506618214636848</v>
       </c>
     </row>
     <row r="366">
@@ -48842,7 +48842,7 @@
         <v>0</v>
       </c>
       <c r="AP366" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AQ366" t="inlineStr">
         <is>
@@ -48850,7 +48850,7 @@
         </is>
       </c>
       <c r="AR366" t="n">
-        <v>1.587999345973568</v>
+        <v>1.588246019895798</v>
       </c>
     </row>
     <row r="367">
@@ -48982,7 +48982,7 @@
         <v>0</v>
       </c>
       <c r="AP367" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AQ367" t="inlineStr">
         <is>
@@ -48990,7 +48990,7 @@
         </is>
       </c>
       <c r="AR367" t="n">
-        <v>1.93182239174297</v>
+        <v>1.93202353835441</v>
       </c>
     </row>
     <row r="368">
@@ -49122,7 +49122,7 @@
         <v>0</v>
       </c>
       <c r="AP368" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ368" t="inlineStr">
         <is>
@@ -49130,7 +49130,7 @@
         </is>
       </c>
       <c r="AR368" t="n">
-        <v>1.326394854627284</v>
+        <v>1.32667616889468</v>
       </c>
     </row>
     <row r="369">
@@ -49252,7 +49252,7 @@
         <v>0</v>
       </c>
       <c r="AP369" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AQ369" t="inlineStr">
         <is>
@@ -49260,7 +49260,7 @@
         </is>
       </c>
       <c r="AR369" t="n">
-        <v>3.998497873378618</v>
+        <v>3.998425361263245</v>
       </c>
     </row>
     <row r="370">
@@ -49384,7 +49384,7 @@
         <v>0</v>
       </c>
       <c r="AP370" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AQ370" t="inlineStr">
         <is>
@@ -49392,7 +49392,7 @@
         </is>
       </c>
       <c r="AR370" t="n">
-        <v>1.199329815973373</v>
+        <v>1.199627955551279</v>
       </c>
     </row>
     <row r="371">
@@ -49518,7 +49518,7 @@
         <v>0</v>
       </c>
       <c r="AP371" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ371" t="inlineStr">
         <is>
@@ -49526,7 +49526,7 @@
         </is>
       </c>
       <c r="AR371" t="n">
-        <v>0.848032356165505</v>
+        <v>0.8483770127783485</v>
       </c>
     </row>
     <row r="372">
@@ -49648,7 +49648,7 @@
         <v>0</v>
       </c>
       <c r="AP372" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AQ372" t="inlineStr">
         <is>
@@ -49656,7 +49656,7 @@
         </is>
       </c>
       <c r="AR372" t="n">
-        <v>1.404876202031168</v>
+        <v>1.405147124195015</v>
       </c>
     </row>
     <row r="373">
@@ -49780,7 +49780,7 @@
         <v>0</v>
       </c>
       <c r="AP373" t="n">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AQ373" t="inlineStr">
         <is>
@@ -49788,7 +49788,7 @@
         </is>
       </c>
       <c r="AR373" t="n">
-        <v>1.931822391742971</v>
+        <v>1.932023538354411</v>
       </c>
     </row>
     <row r="374">
@@ -49910,7 +49910,7 @@
         <v>0</v>
       </c>
       <c r="AP374" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AQ374" t="inlineStr">
         <is>
@@ -49918,7 +49918,7 @@
         </is>
       </c>
       <c r="AR374" t="n">
-        <v>2.671789381551032</v>
+        <v>2.671892545471859</v>
       </c>
     </row>
     <row r="375">
@@ -50040,7 +50040,7 @@
         <v>0</v>
       </c>
       <c r="AP375" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AQ375" t="inlineStr">
         <is>
@@ -50048,7 +50048,7 @@
         </is>
       </c>
       <c r="AR375" t="n">
-        <v>1.815968974146758</v>
+        <v>1.816185461482486</v>
       </c>
     </row>
     <row r="376">
@@ -50170,7 +50170,7 @@
         <v>0</v>
       </c>
       <c r="AP376" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AQ376" t="inlineStr">
         <is>
@@ -50178,7 +50178,7 @@
         </is>
       </c>
       <c r="AR376" t="n">
-        <v>1.954619354560289</v>
+        <v>1.954817482513079</v>
       </c>
     </row>
     <row r="377">
@@ -50302,7 +50302,7 @@
         <v>0</v>
       </c>
       <c r="AP377" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AQ377" t="inlineStr">
         <is>
@@ -50310,7 +50310,7 @@
         </is>
       </c>
       <c r="AR377" t="n">
-        <v>2.634417311358705</v>
+        <v>2.634525423900271</v>
       </c>
     </row>
     <row r="378">
@@ -50436,7 +50436,7 @@
         <v>0</v>
       </c>
       <c r="AP378" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AQ378" t="inlineStr">
         <is>
@@ -50444,7 +50444,7 @@
         </is>
       </c>
       <c r="AR378" t="n">
-        <v>2.28685705857007</v>
+        <v>2.287011193284499</v>
       </c>
     </row>
     <row r="379">
@@ -50566,7 +50566,7 @@
         <v>0</v>
       </c>
       <c r="AP379" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AQ379" t="inlineStr">
         <is>
@@ -50574,7 +50574,7 @@
         </is>
       </c>
       <c r="AR379" t="n">
-        <v>3.113153530522407</v>
+        <v>3.113198251232317</v>
       </c>
     </row>
     <row r="380">
@@ -50704,7 +50704,7 @@
         <v>0</v>
       </c>
       <c r="AP380" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ380" t="inlineStr">
         <is>
@@ -50712,7 +50712,7 @@
         </is>
       </c>
       <c r="AR380" t="n">
-        <v>2.309280300685465</v>
+        <v>2.309431466227453</v>
       </c>
     </row>
     <row r="381">
@@ -50836,7 +50836,7 @@
         <v>0</v>
       </c>
       <c r="AP381" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ381" t="inlineStr">
         <is>
@@ -50844,7 +50844,7 @@
         </is>
       </c>
       <c r="AR381" t="n">
-        <v>3.094093774724321</v>
+        <v>3.094141019230807</v>
       </c>
     </row>
     <row r="382">
@@ -50966,7 +50966,7 @@
         <v>0</v>
       </c>
       <c r="AP382" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AQ382" t="inlineStr">
         <is>
@@ -50974,7 +50974,7 @@
         </is>
       </c>
       <c r="AR382" t="n">
-        <v>1.733750419723641</v>
+        <v>1.733977794024991</v>
       </c>
     </row>
     <row r="383">
@@ -51100,7 +51100,7 @@
         <v>0</v>
       </c>
       <c r="AP383" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AQ383" t="inlineStr">
         <is>
@@ -51108,7 +51108,7 @@
         </is>
       </c>
       <c r="AR383" t="n">
-        <v>3.531346995974538</v>
+        <v>3.531336341618391</v>
       </c>
     </row>
     <row r="384">
@@ -51230,7 +51230,7 @@
         <v>0</v>
       </c>
       <c r="AP384" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AQ384" t="inlineStr">
         <is>
@@ -51238,7 +51238,7 @@
         </is>
       </c>
       <c r="AR384" t="n">
-        <v>1.584262138954335</v>
+        <v>1.584509307738638</v>
       </c>
     </row>
     <row r="385">
@@ -51370,7 +51370,7 @@
         <v>0</v>
       </c>
       <c r="AP385" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AQ385" t="inlineStr">
         <is>
@@ -51378,7 +51378,7 @@
         </is>
       </c>
       <c r="AR385" t="n">
-        <v>2.32796633578163</v>
+        <v>2.328115027013247</v>
       </c>
     </row>
     <row r="386">
@@ -51502,7 +51502,7 @@
         <v>0</v>
       </c>
       <c r="AP386" t="n">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ386" t="inlineStr">
         <is>
@@ -51510,7 +51510,7 @@
         </is>
       </c>
       <c r="AR386" t="n">
-        <v>2.204638504146952</v>
+        <v>2.204803525827003</v>
       </c>
     </row>
     <row r="387">
@@ -51632,7 +51632,7 @@
         <v>0</v>
       </c>
       <c r="AP387" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AQ387" t="inlineStr">
         <is>
@@ -51640,7 +51640,7 @@
         </is>
       </c>
       <c r="AR387" t="n">
-        <v>3.213684399339765</v>
+        <v>3.213715808259891</v>
       </c>
     </row>
     <row r="388">
@@ -51770,7 +51770,7 @@
         <v>0</v>
       </c>
       <c r="AP388" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AQ388" t="inlineStr">
         <is>
@@ -51778,7 +51778,7 @@
         </is>
       </c>
       <c r="AR388" t="n">
-        <v>1.954245633858365</v>
+        <v>1.954443811297362</v>
       </c>
     </row>
     <row r="389">
@@ -51904,7 +51904,7 @@
         <v>0</v>
       </c>
       <c r="AP389" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AQ389" t="inlineStr">
         <is>
@@ -51912,7 +51912,7 @@
         </is>
       </c>
       <c r="AR389" t="n">
-        <v>1.360029717800377</v>
+        <v>1.360306578309109</v>
       </c>
     </row>
     <row r="390">
@@ -52038,7 +52038,7 @@
         <v>0</v>
       </c>
       <c r="AP390" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AQ390" t="inlineStr">
         <is>
@@ -52046,7 +52046,7 @@
         </is>
       </c>
       <c r="AR390" t="n">
-        <v>1.360029717800377</v>
+        <v>1.360306578309109</v>
       </c>
     </row>
   </sheetData>
